--- a/outputs/SORs/SOR Testing_Corp EH&S.xlsx
+++ b/outputs/SORs/SOR Testing_Corp EH&S.xlsx
@@ -30,7 +30,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -1444,7 +1444,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1515,7 +1515,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>

--- a/outputs/SORs/SOR Testing_Corp EH&S.xlsx
+++ b/outputs/SORs/SOR Testing_Corp EH&S.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t xml:space="preserve">Milwaukee Pmc Hq Wisconsin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Fill Rate</t>
   </si>
   <si>
     <t xml:space="preserve">South Beloit Gardner St Illinois</t>
@@ -1607,40 +1610,101 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1736,7 +1800,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -1807,7 +1871,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1878,7 +1942,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1898,9 +1962,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="L4" s="5"/>
       <c r="M4" s="5" t="n">
         <v>0</v>
       </c>

--- a/outputs/SORs/SOR Testing_Corp EH&S.xlsx
+++ b/outputs/SORs/SOR Testing_Corp EH&S.xlsx
@@ -1447,7 +1447,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.3846</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1518,7 +1518,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>0.3846</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1589,7 +1589,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>0.3846</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1613,37 +1613,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>0.23075</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.23075</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>0.23075</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="5">

--- a/outputs/SORs/SOR Testing_Corp EH&S.xlsx
+++ b/outputs/SORs/SOR Testing_Corp EH&S.xlsx
@@ -1447,7 +1447,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.3846</v>
+        <v>0.3704</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1518,7 +1518,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.3846</v>
+        <v>0.3704</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1589,7 +1589,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.3846</v>
+        <v>0.3704</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1613,37 +1613,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.0769166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.23075</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.0769166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.0769166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.0769166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.23075</v>
+        <v>0.1852</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.0769166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.0769166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.0769166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.23075</v>
+        <v>0.1852</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.923</v>
+        <v>0.7408</v>
       </c>
     </row>
     <row r="5">
@@ -1673,9 +1673,7 @@
       <c r="L5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="M5" s="4"/>
       <c r="N5" s="4" t="n">
         <v>0</v>
       </c>
@@ -1963,12 +1961,8 @@
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="5" t="n">
         <v>0</v>
       </c>

--- a/outputs/SORs/SOR Testing_Corp EH&S.xlsx
+++ b/outputs/SORs/SOR Testing_Corp EH&S.xlsx
@@ -1619,31 +1619,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1852</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.1852</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.7408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1677,9 +1677,7 @@
       <c r="N5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="O5" s="4"/>
       <c r="P5" s="4" t="n">
         <v>0</v>
       </c>
@@ -1963,9 +1961,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="O4" s="5"/>
       <c r="P4" s="5" t="n">
         <v>0</v>
       </c>
